--- a/docs/StructureDefinition-VAPurpleHeartStatusProfile.xlsx
+++ b/docs/StructureDefinition-VAPurpleHeartStatusProfile.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="492">
   <si>
     <t>Path</t>
   </si>
@@ -1009,6 +1009,9 @@
   </si>
   <si>
     <t>Observation.value[x].coding.system</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0136</t>
   </si>
   <si>
     <t>Observation.value[x].coding.version</t>
@@ -6449,7 +6452,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>317</v>
       </c>
@@ -6465,7 +6468,7 @@
         <v>57</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>46</v>
@@ -6493,7 +6496,7 @@
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>46</v>
@@ -6573,7 +6576,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6693,7 +6696,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6724,7 +6727,7 @@
         <v>111</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
@@ -6792,7 +6795,7 @@
         <v>46</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>46</v>
@@ -6815,7 +6818,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6935,7 +6938,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7057,7 +7060,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7179,7 +7182,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7205,16 +7208,16 @@
         <v>154</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>46</v>
@@ -7242,10 +7245,10 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>46</v>
@@ -7263,7 +7266,7 @@
         <v>46</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
@@ -7272,7 +7275,7 @@
         <v>57</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>46</v>
@@ -7290,7 +7293,7 @@
         <v>100</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>46</v>
@@ -7301,11 +7304,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7327,14 +7330,14 @@
         <v>154</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>46</v>
@@ -7362,10 +7365,10 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>46</v>
@@ -7383,7 +7386,7 @@
         <v>46</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
@@ -7404,24 +7407,24 @@
         <v>46</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7447,14 +7450,14 @@
         <v>179</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>46</v>
@@ -7503,7 +7506,7 @@
         <v>46</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>44</v>
@@ -7521,16 +7524,16 @@
         <v>46</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>46</v>
@@ -7541,7 +7544,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7567,13 +7570,13 @@
         <v>154</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7602,10 +7605,10 @@
         <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>46</v>
@@ -7623,7 +7626,7 @@
         <v>46</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>44</v>
@@ -7644,24 +7647,24 @@
         <v>46</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7687,16 +7690,16 @@
         <v>154</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>46</v>
@@ -7724,10 +7727,10 @@
         <v>169</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>46</v>
@@ -7745,7 +7748,7 @@
         <v>46</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>44</v>
@@ -7769,10 +7772,10 @@
         <v>46</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>46</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7806,16 +7809,16 @@
         <v>46</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7865,7 +7868,7 @@
         <v>46</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>44</v>
@@ -7886,24 +7889,24 @@
         <v>46</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7926,16 +7929,16 @@
         <v>46</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7985,7 +7988,7 @@
         <v>46</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>44</v>
@@ -8006,24 +8009,24 @@
         <v>46</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8046,19 +8049,19 @@
         <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>46</v>
@@ -8107,7 +8110,7 @@
         <v>46</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
@@ -8119,7 +8122,7 @@
         <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>46</v>
@@ -8131,10 +8134,10 @@
         <v>46</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>46</v>
@@ -8145,7 +8148,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8263,7 +8266,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8383,11 +8386,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8412,7 +8415,7 @@
         <v>118</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>120</v>
@@ -8465,7 +8468,7 @@
         <v>46</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>44</v>
@@ -8503,7 +8506,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8526,13 +8529,13 @@
         <v>46</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8583,7 +8586,7 @@
         <v>46</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>44</v>
@@ -8592,7 +8595,7 @@
         <v>57</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>46</v>
@@ -8607,10 +8610,10 @@
         <v>46</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>46</v>
@@ -8621,7 +8624,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8644,13 +8647,13 @@
         <v>46</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8701,7 +8704,7 @@
         <v>46</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>44</v>
@@ -8710,7 +8713,7 @@
         <v>57</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>46</v>
@@ -8725,10 +8728,10 @@
         <v>46</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>46</v>
@@ -8739,7 +8742,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8765,16 +8768,16 @@
         <v>154</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>46</v>
@@ -8802,10 +8805,10 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>46</v>
@@ -8823,7 +8826,7 @@
         <v>46</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>44</v>
@@ -8844,13 +8847,13 @@
         <v>46</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>46</v>
@@ -8861,7 +8864,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8887,16 +8890,16 @@
         <v>154</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>46</v>
@@ -8924,10 +8927,10 @@
         <v>169</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>46</v>
@@ -8945,7 +8948,7 @@
         <v>46</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>44</v>
@@ -8966,13 +8969,13 @@
         <v>46</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>46</v>
@@ -8983,7 +8986,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9006,17 +9009,17 @@
         <v>46</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>46</v>
@@ -9065,7 +9068,7 @@
         <v>46</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>44</v>
@@ -9092,7 +9095,7 @@
         <v>46</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>46</v>
@@ -9103,7 +9106,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9129,10 +9132,10 @@
         <v>179</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9183,7 +9186,7 @@
         <v>46</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>44</v>
@@ -9207,10 +9210,10 @@
         <v>46</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>46</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9244,19 +9247,19 @@
         <v>58</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>46</v>
@@ -9305,7 +9308,7 @@
         <v>46</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>44</v>
@@ -9317,7 +9320,7 @@
         <v>46</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>46</v>
@@ -9329,10 +9332,10 @@
         <v>46</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>46</v>
@@ -9343,7 +9346,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9461,7 +9464,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9581,11 +9584,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9610,7 +9613,7 @@
         <v>118</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>120</v>
@@ -9663,7 +9666,7 @@
         <v>46</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>44</v>
@@ -9701,7 +9704,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9727,16 +9730,16 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>46</v>
@@ -9764,10 +9767,10 @@
         <v>145</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>46</v>
@@ -9785,7 +9788,7 @@
         <v>46</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>44</v>
@@ -9812,7 +9815,7 @@
         <v>100</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>46</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9846,13 +9849,13 @@
         <v>46</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9903,7 +9906,7 @@
         <v>46</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>57</v>
@@ -9930,7 +9933,7 @@
         <v>46</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>46</v>
@@ -9941,7 +9944,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9964,19 +9967,19 @@
         <v>58</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>46</v>
@@ -10025,7 +10028,7 @@
         <v>46</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>44</v>
@@ -10037,7 +10040,7 @@
         <v>46</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>46</v>
@@ -10049,10 +10052,10 @@
         <v>46</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>46</v>
@@ -10063,7 +10066,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10181,7 +10184,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10301,11 +10304,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10330,7 +10333,7 @@
         <v>118</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>120</v>
@@ -10383,7 +10386,7 @@
         <v>46</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>44</v>
@@ -10421,7 +10424,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10447,10 +10450,10 @@
         <v>154</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
@@ -10503,7 +10506,7 @@
         <v>46</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>57</v>
@@ -10524,7 +10527,7 @@
         <v>46</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>174</v>
@@ -10541,7 +10544,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10564,16 +10567,16 @@
         <v>58</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>300</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>302</v>
@@ -10625,7 +10628,7 @@
         <v>46</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>44</v>
@@ -10646,7 +10649,7 @@
         <v>46</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>308</v>
@@ -10663,7 +10666,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10689,16 +10692,16 @@
         <v>154</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>46</v>
@@ -10726,10 +10729,10 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>46</v>
@@ -10747,7 +10750,7 @@
         <v>46</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>44</v>
@@ -10756,7 +10759,7 @@
         <v>57</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>46</v>
@@ -10774,7 +10777,7 @@
         <v>100</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>46</v>
@@ -10785,11 +10788,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10811,16 +10814,16 @@
         <v>154</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>46</v>
@@ -10848,10 +10851,10 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>46</v>
@@ -10869,7 +10872,7 @@
         <v>46</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>44</v>
@@ -10890,24 +10893,24 @@
         <v>46</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10933,16 +10936,16 @@
         <v>46</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>46</v>
@@ -10991,7 +10994,7 @@
         <v>46</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>44</v>
@@ -11015,10 +11018,10 @@
         <v>46</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>46</v>

--- a/docs/StructureDefinition-VAPurpleHeartStatusProfile.xlsx
+++ b/docs/StructureDefinition-VAPurpleHeartStatusProfile.xlsx
@@ -355,7 +355,7 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>event-statusReason</t>
+    <t>event-processState</t>
   </si>
   <si>
     <t>Current Purple Heart Status</t>
@@ -793,7 +793,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/VAPatient)
 </t>
   </si>
   <si>
@@ -5004,7 +5004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>249</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>57</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>46</v>
